--- a/academias/Ciencias Sociales MCC - Estadisticos 20242.xlsx
+++ b/academias/Ciencias Sociales MCC - Estadisticos 20242.xlsx
@@ -1545,25 +1545,25 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1577,25 +1577,25 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1679,25 +1679,25 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>21.6</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1714,25 +1714,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1749,25 +1749,25 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>15.6</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1784,25 +1784,25 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>89.7</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1819,25 +1819,25 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1854,25 +1854,25 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1924,25 +1924,25 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1959,25 +1959,25 @@
         <v>40</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>2.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1994,25 +1994,25 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2029,25 +2029,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>7.9</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2061,25 +2061,25 @@
         <v>376</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="F17">
-        <v>376</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J17">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2096,25 +2096,25 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>41.7</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J18">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2131,25 +2131,25 @@
         <v>28</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2166,25 +2166,25 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>39.1</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2201,25 +2201,25 @@
         <v>29</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J21">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2236,25 +2236,25 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2271,25 +2271,25 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2306,25 +2306,25 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2341,25 +2341,25 @@
         <v>13</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>38.5</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2376,25 +2376,25 @@
         <v>14</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="J26">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2408,25 +2408,25 @@
         <v>198</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>30.8</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J27">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2437,25 +2437,25 @@
         <v>633</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="F28">
-        <v>633</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>22.1</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>633</v>
+        <v>50</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2660,16 +2660,16 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>73</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>27</v>
+        <v>21.6</v>
       </c>
       <c r="I6" s="2">
         <v>7.8</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2730,19 +2730,19 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>81.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>18.8</v>
+        <v>15.6</v>
       </c>
       <c r="I8" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2765,19 +2765,19 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>84.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="H9" s="1">
-        <v>15.4</v>
+        <v>10.3</v>
       </c>
       <c r="I9" s="2">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>86.8</v>
+        <v>84.2</v>
       </c>
       <c r="H10" s="1">
-        <v>13.2</v>
+        <v>15.8</v>
       </c>
       <c r="I10" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>12.5</v>
       </c>
       <c r="I11" s="2">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.5</v>
       </c>
       <c r="I14" s="2">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3010,19 +3010,19 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>89.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="I16" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3042,19 +3042,19 @@
         <v>376</v>
       </c>
       <c r="E17">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
-        <v>90.7</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>52.8</v>
+        <v>58.3</v>
       </c>
       <c r="H18" s="1">
-        <v>47.2</v>
+        <v>41.7</v>
       </c>
       <c r="I18" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>28.6</v>
       </c>
       <c r="I19" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3147,19 +3147,19 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>56.5</v>
+        <v>60.9</v>
       </c>
       <c r="H20" s="1">
-        <v>43.5</v>
+        <v>39.1</v>
       </c>
       <c r="I20" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3182,19 +3182,19 @@
         <v>29</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>55.2</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1">
-        <v>44.8</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3217,19 +3217,19 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>72.7</v>
+        <v>81.8</v>
       </c>
       <c r="H22" s="1">
-        <v>27.3</v>
+        <v>18.2</v>
       </c>
       <c r="I22" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3287,19 +3287,19 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>38.5</v>
       </c>
       <c r="I25" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>7.1</v>
       </c>
       <c r="I26" s="2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3389,19 +3389,19 @@
         <v>198</v>
       </c>
       <c r="E27">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1">
-        <v>64.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="H27" s="1">
-        <v>35.9</v>
+        <v>30.8</v>
       </c>
       <c r="I27" s="2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3418,16 +3418,16 @@
         <v>633</v>
       </c>
       <c r="E28">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F28">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1">
-        <v>83.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="H28" s="1">
-        <v>16.9</v>
+        <v>14.5</v>
       </c>
       <c r="I28" s="2">
         <v>7.5</v>
